--- a/userstory.xlsx
+++ b/userstory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>User Management</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>payment through online</t>
+  </si>
+  <si>
+    <t>viewing &amp; updating</t>
   </si>
 </sst>
 </file>
@@ -442,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,6 +594,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
